--- a/recruiters.xlsx
+++ b/recruiters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal Projects\Automated Resume Email\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\Automated_Job_Request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBEF247-2235-4C7B-93BC-E19C26AA92FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE1E00-7065-4F6F-A55A-C55D9C3D0667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,9 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
